--- a/list/option_sample.xlsx
+++ b/list/option_sample.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\checc\PycharmProjects\pythonProject_210316_01\list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\checc\PycharmProjects\redprinting_crolling2\list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD67ACFF-8378-46FA-8682-DD34B60862AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0BC105-99C1-4C98-BD7C-5B6AC4BED0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37470" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="76680" yWindow="-120" windowWidth="17310" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="case_item" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="case_item" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>ItemCode</t>
   </si>
@@ -1100,11 +1101,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602C34CC-3D2D-4C02-A7D2-9B720CD2A826}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
